--- a/public/sample/ProductImages.xlsx
+++ b/public/sample/ProductImages.xlsx
@@ -1,41 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Zruits\zehnaecom_laravel\public\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Avvatar\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D081C499-87CB-4DD8-82C1-5B1251B82654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" forceFullCalc="1"/>
+  <calcPr calcId="181029" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>product_name</t>
   </si>
   <si>
-    <t>color_name</t>
-  </si>
-  <si>
     <t>image_path</t>
   </si>
   <si>
     <t>Test Name</t>
   </si>
   <si>
-    <t>Color 1</t>
-  </si>
-  <si>
     <t>C:\images\products\6860804701-big.jpg</t>
   </si>
   <si>
@@ -49,12 +44,21 @@
   </si>
   <si>
     <t>C:\images\products\7685328861-thumb.jpg</t>
+  </si>
+  <si>
+    <t>Size_name</t>
+  </si>
+  <si>
+    <t>1 Kg</t>
+  </si>
+  <si>
+    <t>2 Kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,6 +181,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -212,6 +233,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -387,11 +425,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,65 +444,65 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
